--- a/EG1A.xlsx
+++ b/EG1A.xlsx
@@ -1,25 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{748AC5F8-107C-CF45-B59A-2222C8B30555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t/>
   </si>
   <si>
-    <t>20094328</t>
-  </si>
-  <si>
-    <t>PIATTOS SMB GPREK 68</t>
+    <t>20037566</t>
+  </si>
+  <si>
+    <t>SOVIA MNYK GR PCH 2L</t>
   </si>
   <si>
     <t>EG1A</t>
@@ -28,106 +45,127 @@
     <t>1</t>
   </si>
   <si>
-    <t>RT,(E-2B)</t>
-  </si>
-  <si>
-    <t>10001094</t>
-  </si>
-  <si>
-    <t>CHITATO SAPI PGG 65G</t>
+    <t>RT,(E-4B)</t>
+  </si>
+  <si>
+    <t>20140913</t>
+  </si>
+  <si>
+    <t>SOVIA MNYK GR PCH1.8</t>
+  </si>
+  <si>
+    <t>20133691</t>
+  </si>
+  <si>
+    <t>SEDAAP KALDU SAPI250</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>RT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20101933</t>
+  </si>
+  <si>
+    <t>CHIKI BALL CHOC 200G</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>RT,(E-14H)</t>
   </si>
   <si>
-    <t>20122264</t>
-  </si>
-  <si>
-    <t>CHITATO MI GORENG 65</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>20138106</t>
-  </si>
-  <si>
-    <t>TIC TIC STCK BWG 135</t>
+    <t>10003842</t>
+  </si>
+  <si>
+    <t>C/B PENY.JAMBU 320</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>RT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20052630</t>
-  </si>
-  <si>
-    <t>LOTTE CHOCO PIE 156G</t>
-  </si>
-  <si>
-    <t>20117108</t>
-  </si>
-  <si>
-    <t>BENG-BENG PCK 3X20G</t>
-  </si>
-  <si>
-    <t>20140185</t>
-  </si>
-  <si>
-    <t>SQ CHUNKY MINIS 10X8</t>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20027167</t>
+  </si>
+  <si>
+    <t>IDM FAC.TISSUE NP400</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>PT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20139577</t>
+  </si>
+  <si>
+    <t>PC AREN LATTE 210ML</t>
+  </si>
+  <si>
+    <t>20139578</t>
+  </si>
+  <si>
+    <t>PC GOLDN CARAMEL 210</t>
+  </si>
+  <si>
+    <t>20096781</t>
+  </si>
+  <si>
+    <t>SEDAAP MI KR.SPCY 87</t>
+  </si>
+  <si>
+    <t>20096590</t>
+  </si>
+  <si>
+    <t>SEDAAP MIE SOTO 5'S</t>
+  </si>
+  <si>
+    <t>20123088</t>
+  </si>
+  <si>
+    <t>SEDAAP KCP MNS 720ML</t>
+  </si>
+  <si>
+    <t>20104077</t>
+  </si>
+  <si>
+    <t>SEDAP KCP SPCL 725G</t>
+  </si>
+  <si>
+    <t>20119164</t>
+  </si>
+  <si>
+    <t>TASTY BAKMI YKNKU115</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>20141062</t>
+  </si>
+  <si>
+    <t>SQ CHUNKY CUPID 3X26</t>
   </si>
   <si>
     <t>TG,(E-1B)</t>
   </si>
   <si>
-    <t>20093135</t>
-  </si>
-  <si>
-    <t>BENG-BENG SHR IT 10S</t>
-  </si>
-  <si>
-    <t>20130152</t>
-  </si>
-  <si>
-    <t>LEMONILO BROWNIES 33</t>
-  </si>
-  <si>
-    <t>10000213</t>
-  </si>
-  <si>
-    <t>GLICO POCKY CHO 47GR</t>
-  </si>
-  <si>
-    <t>20046198</t>
-  </si>
-  <si>
-    <t>SNICKERS CHOCOLAT 51</t>
-  </si>
-  <si>
-    <t>20139890</t>
-  </si>
-  <si>
-    <t>WNHAE STRW CHEESCAKE</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>20085730</t>
-  </si>
-  <si>
-    <t>IDM CASH MILK CHO 40</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>PT,(E-1B)</t>
+    <t>20141063</t>
+  </si>
+  <si>
+    <t>SQ CSHW BTRFLY 3X22G</t>
+  </si>
+  <si>
+    <t>10036987</t>
+  </si>
+  <si>
+    <t>S/Q CHOCO CASHEW 52G</t>
   </si>
   <si>
     <t>10003485</t>
@@ -136,47 +174,20 @@
     <t>S/Q CHOCO ALMOND 52G</t>
   </si>
   <si>
-    <t>20039717</t>
-  </si>
-  <si>
-    <t>CADBURY DAIRY MLK 52</t>
-  </si>
-  <si>
-    <t>20072367</t>
-  </si>
-  <si>
-    <t>CADBURY CSHW NUT 52G</t>
-  </si>
-  <si>
-    <t>20141062</t>
-  </si>
-  <si>
-    <t>SQ CHUNKY CUPID 3X26</t>
-  </si>
-  <si>
-    <t>20141063</t>
-  </si>
-  <si>
-    <t>SQ CSHW BTRFLY 3X22G</t>
-  </si>
-  <si>
-    <t>10036987</t>
-  </si>
-  <si>
-    <t>S/Q CHOCO CASHEW 52G</t>
+    <t>EG1A_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,16 +208,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,18 +566,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="1" max="1" width="9.953125" customWidth="1"/>
+    <col min="2" max="2" width="22.05859375" customWidth="1"/>
+    <col min="3" max="3" width="6.05078125" customWidth="1"/>
+    <col min="4" max="5" width="2.95703125" customWidth="1"/>
+    <col min="6" max="6" width="11.97265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -606,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -620,18 +636,18 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -640,18 +656,18 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -660,113 +676,113 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>20133691</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -777,16 +793,16 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -797,16 +813,16 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -817,157 +833,137 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>